--- a/spreadsheets/new/GSE134881.0.xlsx
+++ b/spreadsheets/new/GSE134881.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F33A4-C83B-F045-A901-6598DC2BFEA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31120" windowHeight="16700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
     <sheet name="Sequencing_protocol" sheetId="7" r:id="rId7"/>
     <sheet name="Specimen_from_organism" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6422" uniqueCount="2295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6423" uniqueCount="2296">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -6906,13 +6912,16 @@
   </si>
   <si>
     <t>Ileal biopsy</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6949,6 +6958,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6995,7 +7012,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7027,9 +7044,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7061,6 +7096,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7236,75 +7289,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7483,7 +7532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -7662,7 +7711,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -7820,7 +7869,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -7999,12 +8048,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -8027,7 +8076,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -8050,7 +8099,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -8073,7 +8122,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -8096,7 +8145,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -8119,7 +8168,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -8142,7 +8191,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -8165,7 +8214,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -8188,7 +8237,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -8211,7 +8260,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -8234,7 +8283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -8257,7 +8306,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -8280,7 +8329,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -8303,7 +8352,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>262</v>
       </c>
@@ -8326,7 +8375,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>266</v>
       </c>
@@ -8349,7 +8398,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>270</v>
       </c>
@@ -8372,7 +8421,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -8395,7 +8444,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>278</v>
       </c>
@@ -8418,7 +8467,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -8441,7 +8490,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>286</v>
       </c>
@@ -8464,7 +8513,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>290</v>
       </c>
@@ -8487,7 +8536,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -8510,7 +8559,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>298</v>
       </c>
@@ -8533,7 +8582,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>302</v>
       </c>
@@ -8556,7 +8605,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>306</v>
       </c>
@@ -8579,7 +8628,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>310</v>
       </c>
@@ -8602,7 +8651,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>314</v>
       </c>
@@ -8625,7 +8674,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>318</v>
       </c>
@@ -8648,7 +8697,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -8671,7 +8720,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>326</v>
       </c>
@@ -8694,7 +8743,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>330</v>
       </c>
@@ -8717,7 +8766,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -8740,7 +8789,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -8763,7 +8812,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>342</v>
       </c>
@@ -8786,7 +8835,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>346</v>
       </c>
@@ -8809,7 +8858,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>350</v>
       </c>
@@ -8832,7 +8881,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>354</v>
       </c>
@@ -8855,7 +8904,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>358</v>
       </c>
@@ -8878,7 +8927,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>362</v>
       </c>
@@ -8901,7 +8950,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>366</v>
       </c>
@@ -8924,7 +8973,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>370</v>
       </c>
@@ -8947,7 +8996,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>374</v>
       </c>
@@ -8970,7 +9019,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>378</v>
       </c>
@@ -8993,7 +9042,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>382</v>
       </c>
@@ -9016,7 +9065,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>386</v>
       </c>
@@ -9039,7 +9088,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>390</v>
       </c>
@@ -9062,7 +9111,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>394</v>
       </c>
@@ -9085,7 +9134,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>398</v>
       </c>
@@ -9108,7 +9157,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -9131,7 +9180,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>406</v>
       </c>
@@ -9154,7 +9203,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>410</v>
       </c>
@@ -9177,7 +9226,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -9200,7 +9249,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>418</v>
       </c>
@@ -9223,7 +9272,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>422</v>
       </c>
@@ -9246,7 +9295,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>426</v>
       </c>
@@ -9269,7 +9318,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>430</v>
       </c>
@@ -9292,7 +9341,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>434</v>
       </c>
@@ -9315,7 +9364,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>438</v>
       </c>
@@ -9338,7 +9387,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>442</v>
       </c>
@@ -9361,7 +9410,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>446</v>
       </c>
@@ -9384,7 +9433,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>450</v>
       </c>
@@ -9407,7 +9456,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>454</v>
       </c>
@@ -9430,7 +9479,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -9453,7 +9502,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>462</v>
       </c>
@@ -9476,7 +9525,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>466</v>
       </c>
@@ -9499,7 +9548,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>470</v>
       </c>
@@ -9522,7 +9571,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>474</v>
       </c>
@@ -9545,7 +9594,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>478</v>
       </c>
@@ -9568,7 +9617,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>482</v>
       </c>
@@ -9591,7 +9640,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>486</v>
       </c>
@@ -9614,7 +9663,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>490</v>
       </c>
@@ -9637,7 +9686,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>494</v>
       </c>
@@ -9660,7 +9709,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>498</v>
       </c>
@@ -9683,7 +9732,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>502</v>
       </c>
@@ -9706,7 +9755,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>506</v>
       </c>
@@ -9729,7 +9778,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>510</v>
       </c>
@@ -9752,7 +9801,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>514</v>
       </c>
@@ -9775,7 +9824,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>518</v>
       </c>
@@ -9798,7 +9847,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -9821,7 +9870,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>526</v>
       </c>
@@ -9844,7 +9893,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>530</v>
       </c>
@@ -9867,7 +9916,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>534</v>
       </c>
@@ -9890,7 +9939,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>538</v>
       </c>
@@ -9913,7 +9962,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>542</v>
       </c>
@@ -9936,7 +9985,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>546</v>
       </c>
@@ -9959,7 +10008,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>550</v>
       </c>
@@ -9982,7 +10031,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>554</v>
       </c>
@@ -10005,7 +10054,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>558</v>
       </c>
@@ -10028,7 +10077,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>562</v>
       </c>
@@ -10051,7 +10100,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>566</v>
       </c>
@@ -10074,7 +10123,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>570</v>
       </c>
@@ -10097,7 +10146,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>574</v>
       </c>
@@ -10120,7 +10169,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>578</v>
       </c>
@@ -10143,7 +10192,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>582</v>
       </c>
@@ -10166,7 +10215,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>586</v>
       </c>
@@ -10189,7 +10238,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>590</v>
       </c>
@@ -10212,7 +10261,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>594</v>
       </c>
@@ -10235,7 +10284,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>598</v>
       </c>
@@ -10258,7 +10307,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>602</v>
       </c>
@@ -10281,7 +10330,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>606</v>
       </c>
@@ -10304,7 +10353,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>610</v>
       </c>
@@ -10327,7 +10376,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>614</v>
       </c>
@@ -10350,7 +10399,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>618</v>
       </c>
@@ -10373,7 +10422,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>622</v>
       </c>
@@ -10396,7 +10445,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>626</v>
       </c>
@@ -10419,7 +10468,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>630</v>
       </c>
@@ -10442,7 +10491,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>634</v>
       </c>
@@ -10465,7 +10514,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>638</v>
       </c>
@@ -10488,7 +10537,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>642</v>
       </c>
@@ -10511,7 +10560,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>646</v>
       </c>
@@ -10534,7 +10583,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>650</v>
       </c>
@@ -10557,7 +10606,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>654</v>
       </c>
@@ -10580,7 +10629,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>658</v>
       </c>
@@ -10603,7 +10652,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>662</v>
       </c>
@@ -10626,7 +10675,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>666</v>
       </c>
@@ -10649,7 +10698,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>670</v>
       </c>
@@ -10672,7 +10721,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>674</v>
       </c>
@@ -10695,7 +10744,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>678</v>
       </c>
@@ -10718,7 +10767,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>682</v>
       </c>
@@ -10741,7 +10790,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>686</v>
       </c>
@@ -10764,7 +10813,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>690</v>
       </c>
@@ -10787,7 +10836,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>694</v>
       </c>
@@ -10810,7 +10859,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>698</v>
       </c>
@@ -10833,7 +10882,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>702</v>
       </c>
@@ -10856,7 +10905,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>706</v>
       </c>
@@ -10879,7 +10928,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>710</v>
       </c>
@@ -10902,7 +10951,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>714</v>
       </c>
@@ -10925,7 +10974,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>718</v>
       </c>
@@ -10948,7 +10997,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>722</v>
       </c>
@@ -10971,7 +11020,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>726</v>
       </c>
@@ -10994,7 +11043,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>730</v>
       </c>
@@ -11017,7 +11066,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>734</v>
       </c>
@@ -11040,7 +11089,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>738</v>
       </c>
@@ -11063,7 +11112,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>742</v>
       </c>
@@ -11086,7 +11135,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>746</v>
       </c>
@@ -11109,7 +11158,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>750</v>
       </c>
@@ -11132,7 +11181,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>754</v>
       </c>
@@ -11155,7 +11204,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>758</v>
       </c>
@@ -11178,7 +11227,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>762</v>
       </c>
@@ -11201,7 +11250,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>766</v>
       </c>
@@ -11224,7 +11273,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>770</v>
       </c>
@@ -11247,7 +11296,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>774</v>
       </c>
@@ -11270,7 +11319,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>778</v>
       </c>
@@ -11293,7 +11342,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>782</v>
       </c>
@@ -11316,7 +11365,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>786</v>
       </c>
@@ -11339,7 +11388,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>790</v>
       </c>
@@ -11362,7 +11411,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>794</v>
       </c>
@@ -11385,7 +11434,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>798</v>
       </c>
@@ -11408,7 +11457,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="154" spans="1:41">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>802</v>
       </c>
@@ -11431,7 +11480,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>806</v>
       </c>
@@ -11454,7 +11503,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>810</v>
       </c>
@@ -11477,7 +11526,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>814</v>
       </c>
@@ -11500,7 +11549,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>818</v>
       </c>
@@ -11523,7 +11572,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>822</v>
       </c>
@@ -11546,7 +11595,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>826</v>
       </c>
@@ -11569,7 +11618,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>830</v>
       </c>
@@ -11592,7 +11641,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>834</v>
       </c>
@@ -11615,7 +11664,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>838</v>
       </c>
@@ -11638,7 +11687,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>842</v>
       </c>
@@ -11661,7 +11710,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>846</v>
       </c>
@@ -11684,7 +11733,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>850</v>
       </c>
@@ -11707,7 +11756,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>854</v>
       </c>
@@ -11730,7 +11779,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>858</v>
       </c>
@@ -11753,7 +11802,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>862</v>
       </c>
@@ -11776,7 +11825,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>866</v>
       </c>
@@ -11799,7 +11848,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>870</v>
       </c>
@@ -11822,7 +11871,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>874</v>
       </c>
@@ -11845,7 +11894,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>878</v>
       </c>
@@ -11868,7 +11917,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>882</v>
       </c>
@@ -11891,7 +11940,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>886</v>
       </c>
@@ -11914,7 +11963,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>890</v>
       </c>
@@ -11937,7 +11986,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>894</v>
       </c>
@@ -11960,7 +12009,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>898</v>
       </c>
@@ -11983,7 +12032,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>902</v>
       </c>
@@ -12006,7 +12055,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>906</v>
       </c>
@@ -12029,7 +12078,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>910</v>
       </c>
@@ -12052,7 +12101,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>914</v>
       </c>
@@ -12075,7 +12124,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>918</v>
       </c>
@@ -12098,7 +12147,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>922</v>
       </c>
@@ -12121,7 +12170,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>926</v>
       </c>
@@ -12144,7 +12193,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>930</v>
       </c>
@@ -12167,7 +12216,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="187" spans="1:41">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>934</v>
       </c>
@@ -12190,7 +12239,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="188" spans="1:41">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>938</v>
       </c>
@@ -12213,7 +12262,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="189" spans="1:41">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>942</v>
       </c>
@@ -12236,7 +12285,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="190" spans="1:41">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>946</v>
       </c>
@@ -12259,7 +12308,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="191" spans="1:41">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>950</v>
       </c>
@@ -12282,7 +12331,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="192" spans="1:41">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>954</v>
       </c>
@@ -12302,7 +12351,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="193" spans="1:41">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>957</v>
       </c>
@@ -12322,7 +12371,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="194" spans="1:41">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>960</v>
       </c>
@@ -12342,7 +12391,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="195" spans="1:41">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>963</v>
       </c>
@@ -12362,7 +12411,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="196" spans="1:41">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>966</v>
       </c>
@@ -12382,7 +12431,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="197" spans="1:41">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>969</v>
       </c>
@@ -12402,7 +12451,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="198" spans="1:41">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>972</v>
       </c>
@@ -12422,7 +12471,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="199" spans="1:41">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>975</v>
       </c>
@@ -12442,7 +12491,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="200" spans="1:41">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>978</v>
       </c>
@@ -12462,7 +12511,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="201" spans="1:41">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>981</v>
       </c>
@@ -12482,7 +12531,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="202" spans="1:41">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>984</v>
       </c>
@@ -12502,7 +12551,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="203" spans="1:41">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>987</v>
       </c>
@@ -12522,7 +12571,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="204" spans="1:41">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>990</v>
       </c>
@@ -12548,93 +12597,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>993</v>
       </c>
@@ -12867,7 +12914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13100,7 +13147,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -13315,7 +13362,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1097</v>
       </c>
@@ -13548,12 +13595,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1158</v>
       </c>
@@ -13576,7 +13623,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1164</v>
       </c>
@@ -13599,7 +13646,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1167</v>
       </c>
@@ -13622,7 +13669,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1169</v>
       </c>
@@ -13645,7 +13692,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1171</v>
       </c>
@@ -13668,7 +13715,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1173</v>
       </c>
@@ -13691,7 +13738,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1175</v>
       </c>
@@ -13714,7 +13761,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1177</v>
       </c>
@@ -13737,7 +13784,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1179</v>
       </c>
@@ -13760,7 +13807,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1181</v>
       </c>
@@ -13783,7 +13830,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1183</v>
       </c>
@@ -13806,7 +13853,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1185</v>
       </c>
@@ -13829,7 +13876,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1187</v>
       </c>
@@ -13852,7 +13899,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1189</v>
       </c>
@@ -13875,7 +13922,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1191</v>
       </c>
@@ -13898,7 +13945,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1192</v>
       </c>
@@ -13921,7 +13968,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1193</v>
       </c>
@@ -13944,7 +13991,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1195</v>
       </c>
@@ -13967,7 +14014,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1197</v>
       </c>
@@ -13990,7 +14037,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1198</v>
       </c>
@@ -14013,7 +14060,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1200</v>
       </c>
@@ -14036,7 +14083,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1202</v>
       </c>
@@ -14059,7 +14106,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1204</v>
       </c>
@@ -14082,7 +14129,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1206</v>
       </c>
@@ -14105,7 +14152,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1208</v>
       </c>
@@ -14128,7 +14175,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1210</v>
       </c>
@@ -14151,7 +14198,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1212</v>
       </c>
@@ -14174,7 +14221,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1214</v>
       </c>
@@ -14197,7 +14244,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1216</v>
       </c>
@@ -14220,7 +14267,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1218</v>
       </c>
@@ -14243,7 +14290,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1219</v>
       </c>
@@ -14266,7 +14313,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1220</v>
       </c>
@@ -14289,7 +14336,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1222</v>
       </c>
@@ -14312,7 +14359,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1224</v>
       </c>
@@ -14335,7 +14382,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1225</v>
       </c>
@@ -14358,7 +14405,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1227</v>
       </c>
@@ -14381,7 +14428,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1229</v>
       </c>
@@ -14404,7 +14451,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1231</v>
       </c>
@@ -14427,7 +14474,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1233</v>
       </c>
@@ -14450,7 +14497,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1234</v>
       </c>
@@ -14473,7 +14520,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1235</v>
       </c>
@@ -14496,7 +14543,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1236</v>
       </c>
@@ -14519,7 +14566,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1237</v>
       </c>
@@ -14542,7 +14589,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1239</v>
       </c>
@@ -14565,7 +14612,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1240</v>
       </c>
@@ -14588,7 +14635,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1241</v>
       </c>
@@ -14611,7 +14658,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1243</v>
       </c>
@@ -14634,7 +14681,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1244</v>
       </c>
@@ -14657,7 +14704,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1245</v>
       </c>
@@ -14680,7 +14727,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1246</v>
       </c>
@@ -14703,7 +14750,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1248</v>
       </c>
@@ -14726,7 +14773,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1249</v>
       </c>
@@ -14749,7 +14796,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1251</v>
       </c>
@@ -14772,7 +14819,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1252</v>
       </c>
@@ -14795,7 +14842,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1253</v>
       </c>
@@ -14818,7 +14865,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1255</v>
       </c>
@@ -14841,7 +14888,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1257</v>
       </c>
@@ -14864,7 +14911,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1258</v>
       </c>
@@ -14887,7 +14934,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1259</v>
       </c>
@@ -14910,7 +14957,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1261</v>
       </c>
@@ -14933,7 +14980,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1263</v>
       </c>
@@ -14956,7 +15003,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1264</v>
       </c>
@@ -14979,7 +15026,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1265</v>
       </c>
@@ -15002,7 +15049,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1266</v>
       </c>
@@ -15025,7 +15072,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1268</v>
       </c>
@@ -15048,7 +15095,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1269</v>
       </c>
@@ -15071,7 +15118,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1270</v>
       </c>
@@ -15094,7 +15141,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1271</v>
       </c>
@@ -15117,7 +15164,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1273</v>
       </c>
@@ -15140,7 +15187,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1274</v>
       </c>
@@ -15163,7 +15210,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1275</v>
       </c>
@@ -15186,7 +15233,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1276</v>
       </c>
@@ -15209,7 +15256,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1277</v>
       </c>
@@ -15232,7 +15279,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1279</v>
       </c>
@@ -15255,7 +15302,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1280</v>
       </c>
@@ -15278,7 +15325,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1281</v>
       </c>
@@ -15301,7 +15348,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1282</v>
       </c>
@@ -15324,7 +15371,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1283</v>
       </c>
@@ -15347,7 +15394,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1284</v>
       </c>
@@ -15370,7 +15417,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1285</v>
       </c>
@@ -15393,7 +15440,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1287</v>
       </c>
@@ -15416,7 +15463,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1289</v>
       </c>
@@ -15439,7 +15486,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1290</v>
       </c>
@@ -15462,7 +15509,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1292</v>
       </c>
@@ -15485,7 +15532,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1293</v>
       </c>
@@ -15508,7 +15555,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1294</v>
       </c>
@@ -15531,7 +15578,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1295</v>
       </c>
@@ -15554,7 +15601,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1296</v>
       </c>
@@ -15577,7 +15624,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1298</v>
       </c>
@@ -15600,7 +15647,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1300</v>
       </c>
@@ -15623,7 +15670,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1301</v>
       </c>
@@ -15646,7 +15693,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1303</v>
       </c>
@@ -15669,7 +15716,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1304</v>
       </c>
@@ -15692,7 +15739,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1305</v>
       </c>
@@ -15715,7 +15762,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1307</v>
       </c>
@@ -15738,7 +15785,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1308</v>
       </c>
@@ -15761,7 +15808,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1310</v>
       </c>
@@ -15784,7 +15831,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1311</v>
       </c>
@@ -15807,7 +15854,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1312</v>
       </c>
@@ -15830,7 +15877,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1314</v>
       </c>
@@ -15853,7 +15900,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1315</v>
       </c>
@@ -15876,7 +15923,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1316</v>
       </c>
@@ -15899,7 +15946,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1318</v>
       </c>
@@ -15922,7 +15969,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1319</v>
       </c>
@@ -15945,7 +15992,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1321</v>
       </c>
@@ -15968,7 +16015,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1322</v>
       </c>
@@ -15991,7 +16038,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1324</v>
       </c>
@@ -16014,7 +16061,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1325</v>
       </c>
@@ -16037,7 +16084,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1326</v>
       </c>
@@ -16060,7 +16107,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1327</v>
       </c>
@@ -16083,7 +16130,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1328</v>
       </c>
@@ -16106,7 +16153,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1329</v>
       </c>
@@ -16129,7 +16176,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1330</v>
       </c>
@@ -16152,7 +16199,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1331</v>
       </c>
@@ -16175,7 +16222,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1333</v>
       </c>
@@ -16198,7 +16245,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1334</v>
       </c>
@@ -16221,7 +16268,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1336</v>
       </c>
@@ -16244,7 +16291,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1337</v>
       </c>
@@ -16267,7 +16314,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1339</v>
       </c>
@@ -16290,7 +16337,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1340</v>
       </c>
@@ -16313,7 +16360,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1341</v>
       </c>
@@ -16336,7 +16383,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1342</v>
       </c>
@@ -16359,7 +16406,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1344</v>
       </c>
@@ -16382,7 +16429,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1345</v>
       </c>
@@ -16405,7 +16452,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1347</v>
       </c>
@@ -16428,7 +16475,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="131" spans="1:29">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1348</v>
       </c>
@@ -16451,7 +16498,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1349</v>
       </c>
@@ -16474,7 +16521,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="133" spans="1:29">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1351</v>
       </c>
@@ -16497,7 +16544,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="134" spans="1:29">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1352</v>
       </c>
@@ -16520,7 +16567,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="135" spans="1:29">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1354</v>
       </c>
@@ -16543,7 +16590,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="136" spans="1:29">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1355</v>
       </c>
@@ -16566,7 +16613,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="137" spans="1:29">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1356</v>
       </c>
@@ -16589,7 +16636,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="138" spans="1:29">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1358</v>
       </c>
@@ -16612,7 +16659,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="139" spans="1:29">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1359</v>
       </c>
@@ -16635,7 +16682,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="140" spans="1:29">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1360</v>
       </c>
@@ -16658,7 +16705,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="141" spans="1:29">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1361</v>
       </c>
@@ -16681,7 +16728,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="142" spans="1:29">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1363</v>
       </c>
@@ -16704,7 +16751,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="143" spans="1:29">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1364</v>
       </c>
@@ -16727,7 +16774,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="144" spans="1:29">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1365</v>
       </c>
@@ -16750,7 +16797,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="145" spans="1:29">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1367</v>
       </c>
@@ -16773,7 +16820,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="146" spans="1:29">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1368</v>
       </c>
@@ -16796,7 +16843,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="147" spans="1:29">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1369</v>
       </c>
@@ -16819,7 +16866,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="148" spans="1:29">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1370</v>
       </c>
@@ -16842,7 +16889,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="149" spans="1:29">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1372</v>
       </c>
@@ -16865,7 +16912,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="150" spans="1:29">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1373</v>
       </c>
@@ -16888,7 +16935,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="151" spans="1:29">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1374</v>
       </c>
@@ -16911,7 +16958,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="152" spans="1:29">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1376</v>
       </c>
@@ -16934,7 +16981,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="153" spans="1:29">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1377</v>
       </c>
@@ -16957,7 +17004,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="154" spans="1:29">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1379</v>
       </c>
@@ -16980,7 +17027,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="155" spans="1:29">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1380</v>
       </c>
@@ -17003,7 +17050,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="156" spans="1:29">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1381</v>
       </c>
@@ -17026,7 +17073,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="157" spans="1:29">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1382</v>
       </c>
@@ -17049,7 +17096,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="158" spans="1:29">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1384</v>
       </c>
@@ -17072,7 +17119,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="159" spans="1:29">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1385</v>
       </c>
@@ -17095,7 +17142,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="160" spans="1:29">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1386</v>
       </c>
@@ -17118,7 +17165,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1387</v>
       </c>
@@ -17141,7 +17188,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="162" spans="1:29">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1389</v>
       </c>
@@ -17164,7 +17211,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="163" spans="1:29">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1390</v>
       </c>
@@ -17187,7 +17234,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1391</v>
       </c>
@@ -17210,7 +17257,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1393</v>
       </c>
@@ -17233,7 +17280,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="166" spans="1:29">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1394</v>
       </c>
@@ -17256,7 +17303,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="167" spans="1:29">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1396</v>
       </c>
@@ -17279,7 +17326,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1397</v>
       </c>
@@ -17302,7 +17349,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="169" spans="1:29">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1398</v>
       </c>
@@ -17325,7 +17372,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="170" spans="1:29">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1399</v>
       </c>
@@ -17348,7 +17395,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="171" spans="1:29">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1400</v>
       </c>
@@ -17371,7 +17418,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="172" spans="1:29">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1401</v>
       </c>
@@ -17394,7 +17441,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="173" spans="1:29">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1402</v>
       </c>
@@ -17417,7 +17464,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="174" spans="1:29">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1404</v>
       </c>
@@ -17440,7 +17487,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="175" spans="1:29">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1405</v>
       </c>
@@ -17463,7 +17510,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="176" spans="1:29">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1407</v>
       </c>
@@ -17486,7 +17533,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="177" spans="1:29">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1408</v>
       </c>
@@ -17509,7 +17556,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="178" spans="1:29">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1410</v>
       </c>
@@ -17532,7 +17579,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="179" spans="1:29">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1411</v>
       </c>
@@ -17555,7 +17602,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="180" spans="1:29">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1413</v>
       </c>
@@ -17578,7 +17625,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="181" spans="1:29">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1415</v>
       </c>
@@ -17601,7 +17648,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="182" spans="1:29">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1416</v>
       </c>
@@ -17624,7 +17671,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="183" spans="1:29">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1417</v>
       </c>
@@ -17647,7 +17694,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="184" spans="1:29">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1418</v>
       </c>
@@ -17670,7 +17717,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="185" spans="1:29">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1419</v>
       </c>
@@ -17693,7 +17740,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="186" spans="1:29">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1421</v>
       </c>
@@ -17716,7 +17763,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="187" spans="1:29">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1422</v>
       </c>
@@ -17739,7 +17786,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="188" spans="1:29">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1424</v>
       </c>
@@ -17762,7 +17809,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="189" spans="1:29">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1425</v>
       </c>
@@ -17785,7 +17832,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="190" spans="1:29">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1426</v>
       </c>
@@ -17808,7 +17855,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="191" spans="1:29">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1427</v>
       </c>
@@ -17831,7 +17878,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="192" spans="1:29">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1428</v>
       </c>
@@ -17857,7 +17904,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="193" spans="1:29">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1432</v>
       </c>
@@ -17874,7 +17921,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="194" spans="1:29">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1433</v>
       </c>
@@ -17897,7 +17944,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="195" spans="1:29">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1435</v>
       </c>
@@ -17923,7 +17970,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="196" spans="1:29">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1437</v>
       </c>
@@ -17949,7 +17996,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="197" spans="1:29">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1439</v>
       </c>
@@ -17975,7 +18022,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="198" spans="1:29">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1441</v>
       </c>
@@ -18001,7 +18048,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="199" spans="1:29">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1443</v>
       </c>
@@ -18027,7 +18074,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="200" spans="1:29">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1445</v>
       </c>
@@ -18044,7 +18091,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="201" spans="1:29">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1446</v>
       </c>
@@ -18070,7 +18117,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="202" spans="1:29">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1447</v>
       </c>
@@ -18090,7 +18137,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="203" spans="1:29">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1448</v>
       </c>
@@ -18110,7 +18157,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="204" spans="1:29">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1449</v>
       </c>
@@ -18136,67 +18183,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="145.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="145.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1450</v>
       </c>
@@ -18351,7 +18396,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -18506,7 +18551,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -18655,7 +18700,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1551</v>
       </c>
@@ -18810,12 +18855,12 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1602</v>
       </c>
@@ -18832,25 +18877,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="611.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="611.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1605</v>
       </c>
@@ -18879,7 +18923,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1614</v>
       </c>
@@ -18908,7 +18952,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1623</v>
       </c>
@@ -18937,7 +18981,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1632</v>
       </c>
@@ -18966,12 +19010,12 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1641</v>
       </c>
@@ -18997,28 +19041,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1647</v>
       </c>
@@ -19056,7 +19100,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1659</v>
       </c>
@@ -19094,7 +19138,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1669</v>
       </c>
@@ -19132,7 +19176,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1680</v>
       </c>
@@ -19170,12 +19214,12 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1692</v>
       </c>
@@ -19198,46 +19242,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1697</v>
       </c>
@@ -19329,7 +19371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1709</v>
       </c>
@@ -19421,7 +19463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1718</v>
       </c>
@@ -19501,7 +19543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1728</v>
       </c>
@@ -19593,12 +19635,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1740</v>
       </c>
@@ -19621,7 +19663,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1745</v>
       </c>
@@ -19644,7 +19686,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1747</v>
       </c>
@@ -19667,7 +19709,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1749</v>
       </c>
@@ -19690,7 +19732,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1751</v>
       </c>
@@ -19713,7 +19755,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1753</v>
       </c>
@@ -19736,7 +19778,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1755</v>
       </c>
@@ -19759,7 +19801,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1757</v>
       </c>
@@ -19782,7 +19824,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1759</v>
       </c>
@@ -19805,7 +19847,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1761</v>
       </c>
@@ -19828,7 +19870,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1763</v>
       </c>
@@ -19851,7 +19893,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1765</v>
       </c>
@@ -19874,7 +19916,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1767</v>
       </c>
@@ -19897,7 +19939,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1769</v>
       </c>
@@ -19920,7 +19962,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1771</v>
       </c>
@@ -19943,7 +19985,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1773</v>
       </c>
@@ -19966,7 +20008,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1775</v>
       </c>
@@ -19989,7 +20031,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1777</v>
       </c>
@@ -20012,7 +20054,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1779</v>
       </c>
@@ -20035,7 +20077,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1781</v>
       </c>
@@ -20058,7 +20100,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1783</v>
       </c>
@@ -20081,7 +20123,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1785</v>
       </c>
@@ -20104,7 +20146,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1787</v>
       </c>
@@ -20127,7 +20169,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1789</v>
       </c>
@@ -20150,7 +20192,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1791</v>
       </c>
@@ -20173,7 +20215,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1793</v>
       </c>
@@ -20196,7 +20238,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1795</v>
       </c>
@@ -20219,7 +20261,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1797</v>
       </c>
@@ -20242,7 +20284,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1799</v>
       </c>
@@ -20265,7 +20307,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1801</v>
       </c>
@@ -20288,7 +20330,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1803</v>
       </c>
@@ -20311,7 +20353,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1805</v>
       </c>
@@ -20334,7 +20376,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1807</v>
       </c>
@@ -20357,7 +20399,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1809</v>
       </c>
@@ -20380,7 +20422,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1811</v>
       </c>
@@ -20403,7 +20445,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1813</v>
       </c>
@@ -20426,7 +20468,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1815</v>
       </c>
@@ -20449,7 +20491,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1817</v>
       </c>
@@ -20472,7 +20514,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1819</v>
       </c>
@@ -20495,7 +20537,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1821</v>
       </c>
@@ -20518,7 +20560,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1823</v>
       </c>
@@ -20541,7 +20583,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1825</v>
       </c>
@@ -20564,7 +20606,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1827</v>
       </c>
@@ -20587,7 +20629,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1829</v>
       </c>
@@ -20610,7 +20652,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1831</v>
       </c>
@@ -20633,7 +20675,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1833</v>
       </c>
@@ -20656,7 +20698,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1835</v>
       </c>
@@ -20679,7 +20721,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1837</v>
       </c>
@@ -20702,7 +20744,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1839</v>
       </c>
@@ -20725,7 +20767,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1841</v>
       </c>
@@ -20748,7 +20790,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1843</v>
       </c>
@@ -20771,7 +20813,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1845</v>
       </c>
@@ -20794,7 +20836,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1847</v>
       </c>
@@ -20817,7 +20859,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1849</v>
       </c>
@@ -20840,7 +20882,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1851</v>
       </c>
@@ -20863,7 +20905,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1853</v>
       </c>
@@ -20886,7 +20928,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1855</v>
       </c>
@@ -20909,7 +20951,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1857</v>
       </c>
@@ -20932,7 +20974,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1859</v>
       </c>
@@ -20955,7 +20997,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1861</v>
       </c>
@@ -20978,7 +21020,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1863</v>
       </c>
@@ -21001,7 +21043,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1865</v>
       </c>
@@ -21024,7 +21066,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1867</v>
       </c>
@@ -21047,7 +21089,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1869</v>
       </c>
@@ -21070,7 +21112,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1871</v>
       </c>
@@ -21093,7 +21135,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1873</v>
       </c>
@@ -21116,7 +21158,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1875</v>
       </c>
@@ -21139,7 +21181,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1877</v>
       </c>
@@ -21162,7 +21204,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1879</v>
       </c>
@@ -21185,7 +21227,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1881</v>
       </c>
@@ -21208,7 +21250,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1883</v>
       </c>
@@ -21231,7 +21273,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1885</v>
       </c>
@@ -21254,7 +21296,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1887</v>
       </c>
@@ -21277,7 +21319,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1889</v>
       </c>
@@ -21300,7 +21342,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1891</v>
       </c>
@@ -21323,7 +21365,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1893</v>
       </c>
@@ -21346,7 +21388,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1895</v>
       </c>
@@ -21369,7 +21411,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1897</v>
       </c>
@@ -21392,7 +21434,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1899</v>
       </c>
@@ -21415,7 +21457,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1901</v>
       </c>
@@ -21438,7 +21480,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1903</v>
       </c>
@@ -21461,7 +21503,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1905</v>
       </c>
@@ -21484,7 +21526,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1907</v>
       </c>
@@ -21507,7 +21549,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1909</v>
       </c>
@@ -21530,7 +21572,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1911</v>
       </c>
@@ -21553,7 +21595,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1913</v>
       </c>
@@ -21576,7 +21618,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1915</v>
       </c>
@@ -21599,7 +21641,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1917</v>
       </c>
@@ -21622,7 +21664,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1919</v>
       </c>
@@ -21645,7 +21687,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1921</v>
       </c>
@@ -21668,7 +21710,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1923</v>
       </c>
@@ -21691,7 +21733,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1925</v>
       </c>
@@ -21714,7 +21756,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1927</v>
       </c>
@@ -21737,7 +21779,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1929</v>
       </c>
@@ -21760,7 +21802,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1931</v>
       </c>
@@ -21783,7 +21825,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1933</v>
       </c>
@@ -21806,7 +21848,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1935</v>
       </c>
@@ -21829,7 +21871,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1937</v>
       </c>
@@ -21852,7 +21894,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1939</v>
       </c>
@@ -21875,7 +21917,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1941</v>
       </c>
@@ -21898,7 +21940,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1943</v>
       </c>
@@ -21921,7 +21963,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1945</v>
       </c>
@@ -21944,7 +21986,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1947</v>
       </c>
@@ -21967,7 +22009,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1949</v>
       </c>
@@ -21990,7 +22032,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1951</v>
       </c>
@@ -22013,7 +22055,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1953</v>
       </c>
@@ -22036,7 +22078,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1955</v>
       </c>
@@ -22059,7 +22101,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1957</v>
       </c>
@@ -22082,7 +22124,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1959</v>
       </c>
@@ -22105,7 +22147,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1961</v>
       </c>
@@ -22128,7 +22170,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1963</v>
       </c>
@@ -22151,7 +22193,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1965</v>
       </c>
@@ -22174,7 +22216,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1967</v>
       </c>
@@ -22197,7 +22239,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1969</v>
       </c>
@@ -22220,7 +22262,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1971</v>
       </c>
@@ -22243,7 +22285,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1973</v>
       </c>
@@ -22266,7 +22308,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1975</v>
       </c>
@@ -22289,7 +22331,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1977</v>
       </c>
@@ -22312,7 +22354,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1979</v>
       </c>
@@ -22335,7 +22377,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1981</v>
       </c>
@@ -22358,7 +22400,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1983</v>
       </c>
@@ -22381,7 +22423,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1985</v>
       </c>
@@ -22404,7 +22446,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1987</v>
       </c>
@@ -22427,7 +22469,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1989</v>
       </c>
@@ -22450,7 +22492,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1991</v>
       </c>
@@ -22473,7 +22515,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1993</v>
       </c>
@@ -22496,7 +22538,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1995</v>
       </c>
@@ -22519,7 +22561,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1997</v>
       </c>
@@ -22542,7 +22584,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1999</v>
       </c>
@@ -22565,7 +22607,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>2001</v>
       </c>
@@ -22588,7 +22630,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2003</v>
       </c>
@@ -22611,7 +22653,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>2005</v>
       </c>
@@ -22634,7 +22676,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>2007</v>
       </c>
@@ -22657,7 +22699,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2009</v>
       </c>
@@ -22680,7 +22722,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2011</v>
       </c>
@@ -22703,7 +22745,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>2013</v>
       </c>
@@ -22726,7 +22768,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>2015</v>
       </c>
@@ -22749,7 +22791,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2017</v>
       </c>
@@ -22772,7 +22814,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2019</v>
       </c>
@@ -22795,7 +22837,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>2021</v>
       </c>
@@ -22818,7 +22860,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>2023</v>
       </c>
@@ -22841,7 +22883,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>2025</v>
       </c>
@@ -22864,7 +22906,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>2027</v>
       </c>
@@ -22887,7 +22929,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>2029</v>
       </c>
@@ -22910,7 +22952,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>2031</v>
       </c>
@@ -22933,7 +22975,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2033</v>
       </c>
@@ -22956,7 +22998,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>2035</v>
       </c>
@@ -22979,7 +23021,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>2037</v>
       </c>
@@ -23002,7 +23044,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2039</v>
       </c>
@@ -23025,7 +23067,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>2041</v>
       </c>
@@ -23048,7 +23090,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>2043</v>
       </c>
@@ -23071,7 +23113,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>2045</v>
       </c>
@@ -23094,7 +23136,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>2047</v>
       </c>
@@ -23117,7 +23159,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>2049</v>
       </c>
@@ -23140,7 +23182,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>2051</v>
       </c>
@@ -23163,7 +23205,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2053</v>
       </c>
@@ -23186,7 +23228,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2055</v>
       </c>
@@ -23209,7 +23251,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>2057</v>
       </c>
@@ -23232,7 +23274,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>2059</v>
       </c>
@@ -23255,7 +23297,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2061</v>
       </c>
@@ -23278,7 +23320,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2063</v>
       </c>
@@ -23301,7 +23343,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>2065</v>
       </c>
@@ -23324,7 +23366,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>2067</v>
       </c>
@@ -23347,7 +23389,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>2069</v>
       </c>
@@ -23370,7 +23412,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>2071</v>
       </c>
@@ -23393,7 +23435,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2073</v>
       </c>
@@ -23416,7 +23458,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>2075</v>
       </c>
@@ -23439,7 +23481,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2077</v>
       </c>
@@ -23462,7 +23504,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2079</v>
       </c>
@@ -23485,7 +23527,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2081</v>
       </c>
@@ -23508,7 +23550,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>2083</v>
       </c>
@@ -23531,7 +23573,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>2085</v>
       </c>
@@ -23554,7 +23596,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2087</v>
       </c>
@@ -23577,7 +23619,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2089</v>
       </c>
@@ -23600,7 +23642,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2091</v>
       </c>
@@ -23623,7 +23665,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>2093</v>
       </c>
@@ -23646,7 +23688,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>2095</v>
       </c>
@@ -23669,7 +23711,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2097</v>
       </c>
@@ -23692,7 +23734,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>2099</v>
       </c>
@@ -23715,7 +23757,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2101</v>
       </c>
@@ -23738,7 +23780,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2103</v>
       </c>
@@ -23761,7 +23803,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2105</v>
       </c>
@@ -23784,7 +23826,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2107</v>
       </c>
@@ -23807,7 +23849,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2109</v>
       </c>
@@ -23830,7 +23872,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2111</v>
       </c>
@@ -23853,7 +23895,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>2113</v>
       </c>
@@ -23876,7 +23918,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2115</v>
       </c>
@@ -23899,7 +23941,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2117</v>
       </c>
@@ -23922,7 +23964,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>2119</v>
       </c>
@@ -23945,7 +23987,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>2121</v>
       </c>
@@ -23968,7 +24010,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2123</v>
       </c>
@@ -23991,7 +24033,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>2125</v>
       </c>
@@ -24014,7 +24056,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2127</v>
       </c>
@@ -24037,7 +24079,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2129</v>
       </c>
@@ -24060,7 +24102,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>2131</v>
       </c>
@@ -24083,7 +24125,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>2133</v>
       </c>
@@ -24106,7 +24148,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2135</v>
       </c>
@@ -24129,7 +24171,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>2137</v>
       </c>
@@ -24152,7 +24194,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>2139</v>
       </c>
@@ -24181,34 +24223,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="157.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="157.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1708</v>
       </c>
@@ -24264,7 +24308,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -24320,7 +24364,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -24370,7 +24414,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1739</v>
       </c>
@@ -24426,12 +24470,12 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1744</v>
       </c>
@@ -24440,6 +24484,9 @@
       </c>
       <c r="G6" t="s">
         <v>2188</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2295</v>
       </c>
     </row>
   </sheetData>
@@ -24448,76 +24495,73 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BH204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -24699,7 +24743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -24881,7 +24925,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -25042,7 +25086,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -25224,12 +25268,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -25246,7 +25290,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>217</v>
       </c>
@@ -25263,7 +25307,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -25280,7 +25324,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -25297,7 +25341,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -25314,7 +25358,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>233</v>
       </c>
@@ -25331,7 +25375,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>237</v>
       </c>
@@ -25348,7 +25392,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -25365,7 +25409,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -25382,7 +25426,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -25399,7 +25443,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>253</v>
       </c>
@@ -25416,7 +25460,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -25433,7 +25477,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>261</v>
       </c>
@@ -25450,7 +25494,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>265</v>
       </c>
@@ -25467,7 +25511,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -25484,7 +25528,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -25501,7 +25545,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>277</v>
       </c>
@@ -25518,7 +25562,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>281</v>
       </c>
@@ -25535,7 +25579,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>285</v>
       </c>
@@ -25552,7 +25596,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>289</v>
       </c>
@@ -25569,7 +25613,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -25586,7 +25630,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>297</v>
       </c>
@@ -25603,7 +25647,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -25620,7 +25664,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>305</v>
       </c>
@@ -25637,7 +25681,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>309</v>
       </c>
@@ -25654,7 +25698,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -25671,7 +25715,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>317</v>
       </c>
@@ -25688,7 +25732,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>321</v>
       </c>
@@ -25705,7 +25749,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>325</v>
       </c>
@@ -25722,7 +25766,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>329</v>
       </c>
@@ -25739,7 +25783,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>333</v>
       </c>
@@ -25756,7 +25800,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>337</v>
       </c>
@@ -25773,7 +25817,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>341</v>
       </c>
@@ -25790,7 +25834,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>345</v>
       </c>
@@ -25807,7 +25851,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>349</v>
       </c>
@@ -25824,7 +25868,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>353</v>
       </c>
@@ -25841,7 +25885,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>357</v>
       </c>
@@ -25858,7 +25902,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>361</v>
       </c>
@@ -25875,7 +25919,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>365</v>
       </c>
@@ -25892,7 +25936,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>369</v>
       </c>
@@ -25909,7 +25953,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>373</v>
       </c>
@@ -25926,7 +25970,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -25943,7 +25987,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>381</v>
       </c>
@@ -25960,7 +26004,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>385</v>
       </c>
@@ -25977,7 +26021,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>389</v>
       </c>
@@ -25994,7 +26038,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -26011,7 +26055,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>397</v>
       </c>
@@ -26028,7 +26072,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -26045,7 +26089,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>405</v>
       </c>
@@ -26062,7 +26106,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>409</v>
       </c>
@@ -26079,7 +26123,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>413</v>
       </c>
@@ -26096,7 +26140,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>417</v>
       </c>
@@ -26113,7 +26157,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>421</v>
       </c>
@@ -26130,7 +26174,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>425</v>
       </c>
@@ -26147,7 +26191,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>429</v>
       </c>
@@ -26164,7 +26208,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>433</v>
       </c>
@@ -26181,7 +26225,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>437</v>
       </c>
@@ -26198,7 +26242,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>441</v>
       </c>
@@ -26215,7 +26259,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>445</v>
       </c>
@@ -26232,7 +26276,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>449</v>
       </c>
@@ -26249,7 +26293,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>453</v>
       </c>
@@ -26266,7 +26310,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>457</v>
       </c>
@@ -26283,7 +26327,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>461</v>
       </c>
@@ -26300,7 +26344,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>465</v>
       </c>
@@ -26317,7 +26361,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>469</v>
       </c>
@@ -26334,7 +26378,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>473</v>
       </c>
@@ -26351,7 +26395,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>477</v>
       </c>
@@ -26368,7 +26412,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>481</v>
       </c>
@@ -26385,7 +26429,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>485</v>
       </c>
@@ -26402,7 +26446,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>489</v>
       </c>
@@ -26419,7 +26463,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -26436,7 +26480,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>497</v>
       </c>
@@ -26453,7 +26497,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>501</v>
       </c>
@@ -26470,7 +26514,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>505</v>
       </c>
@@ -26487,7 +26531,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>509</v>
       </c>
@@ -26504,7 +26548,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>513</v>
       </c>
@@ -26521,7 +26565,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>517</v>
       </c>
@@ -26538,7 +26582,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>521</v>
       </c>
@@ -26555,7 +26599,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>525</v>
       </c>
@@ -26572,7 +26616,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>529</v>
       </c>
@@ -26589,7 +26633,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>533</v>
       </c>
@@ -26606,7 +26650,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>537</v>
       </c>
@@ -26623,7 +26667,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>541</v>
       </c>
@@ -26640,7 +26684,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>545</v>
       </c>
@@ -26657,7 +26701,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>549</v>
       </c>
@@ -26674,7 +26718,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>553</v>
       </c>
@@ -26691,7 +26735,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>557</v>
       </c>
@@ -26708,7 +26752,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>561</v>
       </c>
@@ -26725,7 +26769,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>565</v>
       </c>
@@ -26742,7 +26786,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>569</v>
       </c>
@@ -26759,7 +26803,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>573</v>
       </c>
@@ -26776,7 +26820,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>577</v>
       </c>
@@ -26793,7 +26837,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>581</v>
       </c>
@@ -26810,7 +26854,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>585</v>
       </c>
@@ -26827,7 +26871,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>589</v>
       </c>
@@ -26844,7 +26888,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>593</v>
       </c>
@@ -26861,7 +26905,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>597</v>
       </c>
@@ -26878,7 +26922,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>601</v>
       </c>
@@ -26895,7 +26939,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>605</v>
       </c>
@@ -26912,7 +26956,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>609</v>
       </c>
@@ -26929,7 +26973,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>613</v>
       </c>
@@ -26946,7 +26990,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>617</v>
       </c>
@@ -26963,7 +27007,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>621</v>
       </c>
@@ -26980,7 +27024,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>625</v>
       </c>
@@ -26997,7 +27041,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>629</v>
       </c>
@@ -27014,7 +27058,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>633</v>
       </c>
@@ -27031,7 +27075,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>637</v>
       </c>
@@ -27048,7 +27092,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>641</v>
       </c>
@@ -27065,7 +27109,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>645</v>
       </c>
@@ -27082,7 +27126,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>649</v>
       </c>
@@ -27099,7 +27143,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>653</v>
       </c>
@@ -27116,7 +27160,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>657</v>
       </c>
@@ -27133,7 +27177,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>661</v>
       </c>
@@ -27150,7 +27194,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>665</v>
       </c>
@@ -27167,7 +27211,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>669</v>
       </c>
@@ -27184,7 +27228,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>673</v>
       </c>
@@ -27201,7 +27245,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>677</v>
       </c>
@@ -27218,7 +27262,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>681</v>
       </c>
@@ -27235,7 +27279,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="124" spans="1:43">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>685</v>
       </c>
@@ -27252,7 +27296,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="125" spans="1:43">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>689</v>
       </c>
@@ -27269,7 +27313,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>693</v>
       </c>
@@ -27286,7 +27330,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>697</v>
       </c>
@@ -27303,7 +27347,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>701</v>
       </c>
@@ -27320,7 +27364,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>705</v>
       </c>
@@ -27337,7 +27381,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="130" spans="1:43">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>709</v>
       </c>
@@ -27354,7 +27398,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>713</v>
       </c>
@@ -27371,7 +27415,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>717</v>
       </c>
@@ -27388,7 +27432,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>721</v>
       </c>
@@ -27405,7 +27449,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>725</v>
       </c>
@@ -27422,7 +27466,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>729</v>
       </c>
@@ -27439,7 +27483,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>733</v>
       </c>
@@ -27456,7 +27500,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>737</v>
       </c>
@@ -27473,7 +27517,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>741</v>
       </c>
@@ -27490,7 +27534,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>745</v>
       </c>
@@ -27507,7 +27551,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>749</v>
       </c>
@@ -27524,7 +27568,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>753</v>
       </c>
@@ -27541,7 +27585,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>757</v>
       </c>
@@ -27558,7 +27602,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>761</v>
       </c>
@@ -27575,7 +27619,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="144" spans="1:43">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>765</v>
       </c>
@@ -27592,7 +27636,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>769</v>
       </c>
@@ -27609,7 +27653,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>773</v>
       </c>
@@ -27626,7 +27670,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>777</v>
       </c>
@@ -27643,7 +27687,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>781</v>
       </c>
@@ -27660,7 +27704,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>785</v>
       </c>
@@ -27677,7 +27721,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>789</v>
       </c>
@@ -27694,7 +27738,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>793</v>
       </c>
@@ -27711,7 +27755,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>797</v>
       </c>
@@ -27728,7 +27772,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>801</v>
       </c>
@@ -27745,7 +27789,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>805</v>
       </c>
@@ -27762,7 +27806,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>809</v>
       </c>
@@ -27779,7 +27823,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="156" spans="1:43">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>813</v>
       </c>
@@ -27796,7 +27840,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>817</v>
       </c>
@@ -27813,7 +27857,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>821</v>
       </c>
@@ -27830,7 +27874,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>825</v>
       </c>
@@ -27847,7 +27891,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>829</v>
       </c>
@@ -27864,7 +27908,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>833</v>
       </c>
@@ -27881,7 +27925,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="162" spans="1:43">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>837</v>
       </c>
@@ -27898,7 +27942,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>841</v>
       </c>
@@ -27915,7 +27959,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>845</v>
       </c>
@@ -27932,7 +27976,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>849</v>
       </c>
@@ -27949,7 +27993,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="166" spans="1:43">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>853</v>
       </c>
@@ -27966,7 +28010,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>857</v>
       </c>
@@ -27983,7 +28027,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>861</v>
       </c>
@@ -28000,7 +28044,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>865</v>
       </c>
@@ -28017,7 +28061,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>869</v>
       </c>
@@ -28034,7 +28078,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>873</v>
       </c>
@@ -28051,7 +28095,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>877</v>
       </c>
@@ -28068,7 +28112,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>881</v>
       </c>
@@ -28085,7 +28129,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>885</v>
       </c>
@@ -28102,7 +28146,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>889</v>
       </c>
@@ -28119,7 +28163,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>893</v>
       </c>
@@ -28136,7 +28180,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="177" spans="1:43">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>897</v>
       </c>
@@ -28153,7 +28197,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="178" spans="1:43">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>901</v>
       </c>
@@ -28170,7 +28214,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="179" spans="1:43">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>905</v>
       </c>
@@ -28187,7 +28231,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="180" spans="1:43">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>909</v>
       </c>
@@ -28204,7 +28248,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="181" spans="1:43">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>913</v>
       </c>
@@ -28221,7 +28265,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="182" spans="1:43">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>917</v>
       </c>
@@ -28238,7 +28282,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="183" spans="1:43">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>921</v>
       </c>
@@ -28255,7 +28299,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="184" spans="1:43">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>925</v>
       </c>
@@ -28272,7 +28316,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="185" spans="1:43">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>929</v>
       </c>
@@ -28289,7 +28333,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="186" spans="1:43">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>933</v>
       </c>
@@ -28306,7 +28350,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="187" spans="1:43">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>937</v>
       </c>
@@ -28323,7 +28367,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="188" spans="1:43">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>941</v>
       </c>
@@ -28340,7 +28384,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="189" spans="1:43">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>945</v>
       </c>
@@ -28357,7 +28401,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="190" spans="1:43">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>949</v>
       </c>
@@ -28374,7 +28418,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="191" spans="1:43">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>953</v>
       </c>
@@ -28391,7 +28435,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="192" spans="1:43">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>956</v>
       </c>
@@ -28408,7 +28452,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="193" spans="1:43">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>959</v>
       </c>
@@ -28425,7 +28469,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="194" spans="1:43">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>962</v>
       </c>
@@ -28442,7 +28486,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="195" spans="1:43">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>965</v>
       </c>
@@ -28459,7 +28503,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="196" spans="1:43">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>968</v>
       </c>
@@ -28476,7 +28520,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="197" spans="1:43">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>971</v>
       </c>
@@ -28493,7 +28537,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="198" spans="1:43">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>974</v>
       </c>
@@ -28510,7 +28554,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="199" spans="1:43">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>977</v>
       </c>
@@ -28527,7 +28571,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="200" spans="1:43">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>980</v>
       </c>
@@ -28544,7 +28588,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="201" spans="1:43">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>983</v>
       </c>
@@ -28561,7 +28605,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="202" spans="1:43">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>986</v>
       </c>
@@ -28578,7 +28622,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="203" spans="1:43">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>989</v>
       </c>
@@ -28595,7 +28639,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="204" spans="1:43">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>992</v>
       </c>
